--- a/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_PrtLimMech/EngPrt_PrtLimMech.xlsx
+++ b/spec/ASW/Eng/ETS/EngDem/EngPrt/EngPrt_PrtLimMech/EngPrt_PrtLimMech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\EngDem\EngPrt\EngPrt_PrtLimMech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3304DFE-4B74-4598-8DA8-425345190FF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,423 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>EnvP_p</t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>Barometric pressure</t>
+  </si>
+  <si>
+    <t>DSM_bEngPrtNLimErr</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Activation of additional engine speed limitation</t>
+  </si>
+  <si>
+    <t>CEngDsT_t</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>engine coolant temperature after filter</t>
+  </si>
+  <si>
+    <t>Oil_tSwmp</t>
+  </si>
+  <si>
+    <t>Oil temperature in oil sump</t>
+  </si>
+  <si>
+    <t>EngDa_tEng</t>
+  </si>
+  <si>
+    <t>Engine temperature</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurrRmp</t>
+  </si>
+  <si>
+    <t>Nm/(mg/hub)</t>
+  </si>
+  <si>
+    <t>Conversion efficiency corresponding to CnvSet_qSet</t>
+  </si>
+  <si>
+    <t>CoETS_stTSEATrqSpdReq</t>
+  </si>
+  <si>
+    <t>Status of information about torque and speed intervention</t>
+  </si>
+  <si>
+    <t>T15_st</t>
+  </si>
+  <si>
+    <t>Terminal 15 status after debouncing</t>
+  </si>
+  <si>
+    <t>EISGov_nSetPLo</t>
+  </si>
+  <si>
+    <t>Lower limit of the speed interval (set point speed) of the EISGov</t>
+  </si>
+  <si>
+    <t>CoETS_nTSEASpdLim</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimMech</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Resulting limiting torque for engine mechanics protection (inner engine torque)</t>
+  </si>
+  <si>
+    <t>EngPrt_trqUnLim</t>
+  </si>
+  <si>
+    <t>Enabled torque from the maximum power manager</t>
+  </si>
+  <si>
+    <t>EngPrt_trqNLim</t>
+  </si>
+  <si>
+    <t>Limiting torque for protection from excessive engine speed</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimEngTempCor_mp</t>
+  </si>
+  <si>
+    <t>Engine Protection based on Engine temperature and Engine Speed</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimAPSCor_mp</t>
+  </si>
+  <si>
+    <t>Torque limitation correction factor based on atmospheric pressure for engine protection</t>
+  </si>
+  <si>
+    <t>EngPrt_facTrqLimCor_mp</t>
+  </si>
+  <si>
+    <t>Env pressure and Engine Temperature Correction value for Torque Limitation</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimCor_mp</t>
+  </si>
+  <si>
+    <t>Torque correction based on Env Pressure or Engine Temperature field</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimCorVal_mp</t>
+  </si>
+  <si>
+    <t>Torque correction based on Env Pressure or Engine Temperature field multiplied by a factor</t>
+  </si>
+  <si>
+    <t>EngPrt_qLim_mp</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>EngPrt_swtLimCorType_C</t>
+  </si>
+  <si>
+    <t>Application parameter to determine the torque correction factor</t>
+  </si>
+  <si>
+    <t>EngPrt_RmpLimNErrPos_C</t>
+  </si>
+  <si>
+    <t>Nm/s</t>
+  </si>
+  <si>
+    <t>Positive (.Pos_C) resp. ramp gradient between engine speed limitation curves</t>
+  </si>
+  <si>
+    <t>EngPrt_RmpLimNErrNeg_C</t>
+  </si>
+  <si>
+    <t>negative (.Neg_C) ramp gradient between engine speed limitation curves</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLim_CURX</t>
+  </si>
+  <si>
+    <t>[500 800 1000 1200 1400 1600 1800 1900 2000 2200 2400 2600 2700 2800 3000 3100 3200 3350 3475 3600]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLim_CUR</t>
+  </si>
+  <si>
+    <t>[250 212.04 192.51 214.83 231.011999999999 231.57 233.243999999999 234.36 236.033999999999 236.591999999999 242.73 239.94 217.5 175.8 30.4 0 0 0 0 0]</t>
+  </si>
+  <si>
+    <t>Curve for torque limitation (according to application inner or outer engine torque)</t>
+  </si>
+  <si>
+    <t>EngPrt_trqNLimSpr_CUR</t>
+  </si>
+  <si>
+    <t>[300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300 300]</t>
+  </si>
+  <si>
+    <t>Curve for for engine speed limitation in case of system errors (as limitation torque)</t>
+  </si>
+  <si>
+    <t>EngPrt_trqNLimSpr_CURX</t>
+  </si>
+  <si>
+    <t>[0 250 500 800 1000 1250 1400 1600 1800 2000 2200 2400 2500 2600 2700 2800 2900 3000 4750 5000]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqNLim_CUR</t>
+  </si>
+  <si>
+    <t>[400 400 400 400 400 400 400 400 400 400 400 400 400 400 400 400 400 400 400 400]</t>
+  </si>
+  <si>
+    <t>Curve for normal engine speed limitation (inner engine torque)</t>
+  </si>
+  <si>
+    <t>EngPrt_trqNLim_CURX</t>
+  </si>
+  <si>
+    <t>[0 250 500 750 1000 1250 1500 1750 2250 2500 2750 3000 3250 3500 3750 4000 4250 4500 4750 5000]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimEngTempCor_MAP</t>
+  </si>
+  <si>
+    <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimEngTempCor_MAPY</t>
+  </si>
+  <si>
+    <t>[-50 -35 -20 -5 0 15 25 30 45 60 75 90 105 120 130 150]</t>
+  </si>
+  <si>
+    <t>EngPrt_tTrqLim_mp</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimEngTempCor_MAPX</t>
+  </si>
+  <si>
+    <t>[0 250 500 750 1000 1250 1500 3750 4000 4250 4500 4750 5000 5250 5500 6000]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimAPSCor_MAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque limitation correction factor based on atmospheric pressure for engine </t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimAPSCor_MAPY</t>
+  </si>
+  <si>
+    <t>[0 20 40 60 80 100 120 140 160 180 200 220 240 280 320 350]</t>
+  </si>
+  <si>
+    <t>EngPrt_trqLimAPSCor_MAPX</t>
+  </si>
+  <si>
+    <t>EngPrt_facTrqLimCor_MAP</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1;1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>EngPrt_facTrqLimCor_MAPY</t>
+  </si>
+  <si>
+    <t>[0 20 40 60 80 100 110 120 140 160 180 200 220 280 320 350]</t>
+  </si>
+  <si>
+    <t>EngPrt_facTrqLimCor_MAPX</t>
+  </si>
+  <si>
+    <t>[-50 -35 -20 -5 0 15 30 45 60 75 90 105 120 130 140 150]</t>
+  </si>
+  <si>
+    <t>EngPrt_qLim_CUR</t>
+  </si>
+  <si>
+    <t>linspace(50,50,25)</t>
+  </si>
+  <si>
+    <t>Curve for normal engine speed limitation (Injection quantity)</t>
+  </si>
+  <si>
+    <t>EngPrt_qLim_CURX</t>
+  </si>
+  <si>
+    <t>linspace(100,6000,25)</t>
+  </si>
+  <si>
+    <t>EngPrt_swtTrq_C</t>
+  </si>
+  <si>
+    <t>Switch for chosing kind of torque limitation</t>
+  </si>
+  <si>
+    <t>EngPrt_facEngSPOffset_CUR</t>
+  </si>
+  <si>
+    <t>linspace(1,0,10)</t>
+  </si>
+  <si>
+    <t>Curve for Engsp limation</t>
+  </si>
+  <si>
+    <t>EngPrt_facEngSPOffset_CURX</t>
+  </si>
+  <si>
+    <t>linspace(-100,100,10)</t>
+  </si>
+  <si>
+    <t>EngSp  offset</t>
+  </si>
+  <si>
+    <t>EngPrt_nEngSplimRmpSlopePos_C</t>
+  </si>
+  <si>
+    <t>rpm/s</t>
+  </si>
+  <si>
+    <t>slope if the ramp has to be increased</t>
+  </si>
+  <si>
+    <t>EngPrt_nEngSplimRmpSlopeNeg_C</t>
+  </si>
+  <si>
+    <t>slope if the ramp has to be decreased</t>
+  </si>
+  <si>
+    <t>EngPrt_nEngSplimOffset_C</t>
+  </si>
+  <si>
+    <t>engine speed  offset</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_kpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp_C</t>
+  </si>
+  <si>
+    <t>Effcy</t>
+  </si>
+  <si>
+    <t>State2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Torq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq_s</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM_s</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac1</t>
+  </si>
+  <si>
+    <t>ERPM_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The engine speed limitation requested from TSC1 CAN messages. This engine speed limit is given to the speed governor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limitation quantity to protection from excessive torque (Application of the limitation as Injection quantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>Press_kpa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +918,277 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>300</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1242,84 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1372,159 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C7" s="5">
+        <v>319</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,65 +1576,687 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>500</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>500</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C20" s="5">
+        <v>319</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-12000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-12000</v>
+      </c>
+      <c r="C26" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="6"/>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -729,7 +2270,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
